--- a/maplibre/data/raw/StoryMap_Huamanga.xlsx
+++ b/maplibre/data/raw/StoryMap_Huamanga.xlsx
@@ -797,7 +797,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1015,7 +1015,7 @@
         <v>-74.198698092614507</v>
       </c>
       <c r="J6">
-        <v>13.1444841358307</v>
+        <v>-13.1444841358307</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -1047,10 +1047,10 @@
         <v>110</v>
       </c>
       <c r="I7" s="11">
-        <v>-74.224656048324803</v>
+        <v>-74.224607764417996</v>
       </c>
       <c r="J7">
-        <v>-13.156577734404999</v>
+        <v>-13.1565620764577</v>
       </c>
       <c r="K7">
         <v>7</v>

--- a/maplibre/data/raw/StoryMap_Huamanga.xlsx
+++ b/maplibre/data/raw/StoryMap_Huamanga.xlsx
@@ -137,9 +137,6 @@
     <t>10_restituido</t>
   </si>
   <si>
-    <t>He is taken to the Cabitos barracks. Amadeo is also found years later in the grave of La Hoyada.</t>
-  </si>
-  <si>
     <t>Caso 3 - Severino</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
     <t>https://raw.githubusercontent.com/bzdjahna/StoryMap_Students/refs/heads/main/img/2_Amadeo_Amalquino_Conga_e.png</t>
   </si>
   <si>
-    <t>Se dedicaba al tejido artesanal con el que ayudaba en la economía familiar.</t>
-  </si>
-  <si>
     <t>Lo suben a un camión del ejército y dejan a su hermana con los ojos bendados, quien estaba presente en ese momento.</t>
   </si>
   <si>
@@ -302,13 +296,7 @@
     <t>Años más tarde, el cuerpo de Tito es identificado en una de las fosas de La Hoyada y en el 2020 es restituido a su familia.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Amadeo Amalquino Conga Ataucusi, tenía 17 años, y era estudiante de secundaria en el colegio Luis Carranza.</t>
-  </si>
-  <si>
     <t>Mientras dormía, el 28 de Julio de 1984, ingresaron a su dominicio diez personas encapuchadas del ejército.</t>
-  </si>
-  <si>
-    <t>Es llevado a el cuartel Cabitos. Así, Amadeo también es encontrado años después en una fosa de la Hoyada.</t>
   </si>
   <si>
     <t>Severino Díaz Quispe, de 17 años, quien estudiaba en el colegio Los Libertadores...</t>
@@ -366,12 +354,6 @@
     <t xml:space="preserve">Years later, Tito's body was identified in one of the graves at La Hoyada and in 2020 was returned to his family. </t>
   </si>
   <si>
-    <t>Amadeo Amalquino Conga Ataucusi, was 17 years old, a student at the Luis Carranza school.</t>
-  </si>
-  <si>
-    <t>He was dedicated to handicraft weaving, which helped his family's economy</t>
-  </si>
-  <si>
     <t>Suddenly he is intervened by the “Sinchis”, the Civil Guard. Some nurses at the local hospital say that Severino was there, but right after he disappears.</t>
   </si>
   <si>
@@ -424,6 +406,24 @@
   </si>
   <si>
     <t>And while Tito was playing soccer with his friends, on July 15, 1984, he was captured in a raid by the military dressed as civilians and apparently taken in the direction of the premises of the former Civil Guard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amadeo Amalquino Conga Ataucusi, tenía 17 años, y era estudiante de secundaria en el colegio Luis Carranza. Se dedicaba al tejido artesanal con el que ayudaba en la economía familiar.</t>
+  </si>
+  <si>
+    <t>Es llevado a el cuartel Cabitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amadeo también es encontrado años después en una fosa de la Hoyada.</t>
+  </si>
+  <si>
+    <t>Amadeo was found years later in the grave of La Hoyada.</t>
+  </si>
+  <si>
+    <t>Amadeo Amalquino Conga Ataucusi, was 17 years old, a student at the Luis Carranza school. He was dedicated to handicraft weaving, which helped his family's economy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And was taken to the Cabitos barracks. </t>
   </si>
 </sst>
 </file>
@@ -796,8 +796,8 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -857,10 +857,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>12</v>
@@ -869,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I2" s="21">
         <v>-74.223211369082804</v>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4">
@@ -892,10 +892,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
@@ -904,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I3" s="21">
         <v>-74.225884214648005</v>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4">
@@ -927,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>15</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4">
@@ -962,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -974,7 +974,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I5" s="21">
         <v>-74.203762100000006</v>
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4">
@@ -997,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1009,7 +1009,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I6">
         <v>-74.198698092614507</v>
@@ -1021,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4">
@@ -1032,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>23</v>
@@ -1044,7 +1044,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="I7" s="11">
         <v>-74.224607764417996</v>
@@ -1056,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4">
@@ -1067,7 +1067,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -1079,7 +1079,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I8">
         <v>-74.224226794992603</v>
@@ -1096,7 +1096,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -1108,7 +1108,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I9">
         <v>-74.224226794992603</v>
@@ -1125,7 +1125,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -1137,7 +1137,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="I10">
         <v>-74.203762103270606</v>
@@ -1154,7 +1154,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -1163,10 +1163,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="I11">
         <v>-74.198698092614507</v>
@@ -1180,22 +1180,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="I12">
         <v>-74.230797701785306</v>
@@ -1207,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
@@ -1215,22 +1215,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="I13" s="11">
         <v>-74.225859179762594</v>
@@ -1242,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4">
@@ -1250,22 +1250,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I14" s="11">
         <v>-74.225859179762594</v>
@@ -1279,22 +1279,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="I15" s="11">
         <v>-74.225859179762594</v>
@@ -1308,22 +1308,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="I16">
         <v>-74.198698092614507</v>
@@ -1337,22 +1337,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="I17" s="11">
         <v>-74.223628477160901</v>
@@ -1364,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -1372,22 +1372,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="I18" s="11">
         <v>-74.234734575307897</v>
@@ -1401,22 +1401,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="I19">
         <v>-74.203762103270606</v>
@@ -1430,22 +1430,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="I20">
         <v>-74.198698092614507</v>
@@ -1459,22 +1459,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="H21" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I21">
         <v>-74.198698092614507</v>
@@ -1488,22 +1488,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I22" s="5">
         <v>-74.238423900460802</v>
@@ -1517,22 +1517,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="17">
         <v>-74.229020075587897</v>
@@ -1547,22 +1547,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I24" s="17">
         <v>-74.223628477160901</v>
@@ -1577,22 +1577,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="I25" s="9">
         <v>-74.238423900460802</v>
@@ -1606,22 +1606,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="H26" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I26">
         <v>-74.198698092614507</v>
@@ -1699,22 +1699,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H2" s="4">
         <v>-726782</v>

--- a/maplibre/data/raw/StoryMap_Huamanga.xlsx
+++ b/maplibre/data/raw/StoryMap_Huamanga.xlsx
@@ -218,9 +218,6 @@
     <t>https://raw.githubusercontent.com/bzdjahna/StoryMap_Students/refs/heads/main/img/4_Eloy_Barr%C3%B3n_Barboza_d.png</t>
   </si>
   <si>
-    <t>Their mother is desperately looking for them at the Los Cabitos barracks.</t>
-  </si>
-  <si>
     <t>20_vecino</t>
   </si>
   <si>
@@ -354,12 +351,6 @@
     <t xml:space="preserve">Years later, Tito's body was identified in one of the graves at La Hoyada and in 2020 was returned to his family. </t>
   </si>
   <si>
-    <t>Suddenly he is intervened by the “Sinchis”, the Civil Guard. Some nurses at the local hospital say that Severino was there, but right after he disappears.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A neighbor who had left the Cabitos barracks alive, informs Eloy's mother that he had seen someone similar to Eloy and informs her that the boy had died. </t>
-  </si>
-  <si>
     <t>Edy Roberto Sulca Gómez, 18 years old.</t>
   </si>
   <si>
@@ -424,6 +415,15 @@
   </si>
   <si>
     <t xml:space="preserve">And was taken to the Cabitos barracks. </t>
+  </si>
+  <si>
+    <t>Suddenly he is intervened by the “Sinchis”, the Civil Guard. Some nurses at the local hospital claimed that Severino was there, but right after he disappears.</t>
+  </si>
+  <si>
+    <t>Their mother was desperately looking for him at the Los Cabitos barracks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A neighbor who had left the Cabitos barracks alive, informs Eloy's mother that he had seen someone similar to Eloy and informed her that the boy had died. </t>
   </si>
 </sst>
 </file>
@@ -796,8 +796,8 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -857,10 +857,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>12</v>
@@ -869,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="21">
         <v>-74.223211369082804</v>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4">
@@ -892,10 +892,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
@@ -904,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I3" s="21">
         <v>-74.225884214648005</v>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4">
@@ -927,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>15</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4">
@@ -962,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -974,7 +974,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="21">
         <v>-74.203762100000006</v>
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4">
@@ -997,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1009,7 +1009,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I6">
         <v>-74.198698092614507</v>
@@ -1021,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4">
@@ -1032,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>23</v>
@@ -1044,7 +1044,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I7" s="11">
         <v>-74.224607764417996</v>
@@ -1056,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4">
@@ -1067,7 +1067,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -1096,7 +1096,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -1125,7 +1125,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -1137,7 +1137,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I10">
         <v>-74.203762103270606</v>
@@ -1154,7 +1154,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -1163,10 +1163,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I11">
         <v>-74.198698092614507</v>
@@ -1183,7 +1183,7 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>35</v>
@@ -1207,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
@@ -1218,7 +1218,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -1242,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4">
@@ -1253,7 +1253,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -1265,7 +1265,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="I14" s="11">
         <v>-74.225859179762594</v>
@@ -1282,7 +1282,7 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>43</v>
@@ -1311,7 +1311,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1340,7 +1340,7 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>50</v>
@@ -1364,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -1375,7 +1375,7 @@
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>53</v>
@@ -1404,7 +1404,7 @@
         <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
@@ -1433,7 +1433,7 @@
         <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>59</v>
@@ -1445,7 +1445,7 @@
         <v>60</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="I20">
         <v>-74.198698092614507</v>
@@ -1462,19 +1462,19 @@
         <v>49</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="H21" s="12" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I21">
         <v>-74.198698092614507</v>
@@ -1488,22 +1488,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I22" s="5">
         <v>-74.238423900460802</v>
@@ -1517,22 +1517,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="17">
         <v>-74.229020075587897</v>
@@ -1547,22 +1547,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I24" s="17">
         <v>-74.223628477160901</v>
@@ -1577,22 +1577,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="I25" s="9">
         <v>-74.238423900460802</v>
@@ -1606,22 +1606,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>76</v>
-      </c>
       <c r="H26" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I26">
         <v>-74.198698092614507</v>
@@ -1699,22 +1699,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="H2" s="4">
         <v>-726782</v>

--- a/maplibre/data/raw/StoryMap_Huamanga.xlsx
+++ b/maplibre/data/raw/StoryMap_Huamanga.xlsx
@@ -420,10 +420,10 @@
     <t>Suddenly he is intervened by the “Sinchis”, the Civil Guard. Some nurses at the local hospital claimed that Severino was there, but right after he disappears.</t>
   </si>
   <si>
-    <t>Their mother was desperately looking for him at the Los Cabitos barracks.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A neighbor who had left the Cabitos barracks alive, informs Eloy's mother that he had seen someone similar to Eloy and informed her that the boy had died. </t>
+  </si>
+  <si>
+    <t>His mother was desperately looking for him at the Los Cabitos barracks.</t>
   </si>
 </sst>
 </file>
@@ -797,7 +797,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1445,7 +1445,7 @@
         <v>60</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I20">
         <v>-74.198698092614507</v>
@@ -1474,7 +1474,7 @@
         <v>62</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I21">
         <v>-74.198698092614507</v>

--- a/maplibre/data/raw/StoryMap_Huamanga.xlsx
+++ b/maplibre/data/raw/StoryMap_Huamanga.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Example" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -146,18 +147,12 @@
     <t>https://raw.githubusercontent.com/bzdjahna/StoryMap_Students/refs/heads/main/img/3_Severino_D%C3%ADas_Quispe_a.png</t>
   </si>
   <si>
-    <t>Severino Díaz Quispe, 17, who was a student at Los Libertadores school.</t>
-  </si>
-  <si>
     <t>12_desfile</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/bzdjahna/StoryMap_Students/refs/heads/main/img/3_Severino_D%C3%ADas_Quispe_b.png</t>
   </si>
   <si>
-    <t>He participated in a national holiday parade in Plaza Sucre on July 28, 1984.</t>
-  </si>
-  <si>
     <t>13_intevencion</t>
   </si>
   <si>
@@ -179,9 +174,6 @@
     <t>https://raw.githubusercontent.com/bzdjahna/StoryMap_Students/refs/heads/main/img/3_Severino_D%C3%ADas_Quispe_e.png</t>
   </si>
   <si>
-    <t>His relatives showed the judicial authorities his work card, showing that he was a hard-working boy. His body was returned to his relatives in 2020 after being found in La Hoyada.</t>
-  </si>
-  <si>
     <t>Caso 4 - Eloy</t>
   </si>
   <si>
@@ -296,19 +288,7 @@
     <t>Mientras dormía, el 28 de Julio de 1984, ingresaron a su dominicio diez personas encapuchadas del ejército.</t>
   </si>
   <si>
-    <t>Severino Díaz Quispe, de 17 años, quien estudiaba en el colegio Los Libertadores...</t>
-  </si>
-  <si>
-    <t>Participaba en un desfile por fiestas patrias en la Plaza Sucre el 28 de julio de 1984.</t>
-  </si>
-  <si>
-    <t>Es intervenido por los "Sinchis", la Guardia Civil, parece que fue llevado al hospital, y finalmente, lo desaparecen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Severino era quien colaboraba en la economía familiar elaborando frazadas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sus familiares mostraron el carné de trabajo de Severino a las autoridades, demostrando que era un chico trabajador. Su cuerpo es restituido a sus familiares en el 2020. </t>
   </si>
   <si>
     <t xml:space="preserve">Eloy Barrón Barboza, tenía 19 años, estudiaba en el colegio San Ramón. </t>
@@ -424,6 +404,27 @@
   </si>
   <si>
     <t>His mother was desperately looking for him at the Los Cabitos barracks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sus familiares mostraron el carné de trabajo de Severino a las autoridades, demostrando que era un chico trabajador. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su cuerpo es identificado en las fosas de la Hoyada y restituido a sus familiares en el 2020. </t>
+  </si>
+  <si>
+    <t>His body was returned to his relatives in 2020 after being found in La Hoyada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His relatives showed the judicial authorities his work card, showing that he was a hard-working boy. </t>
+  </si>
+  <si>
+    <t>Es intervenido por los "Sinchis", la Guardia Civil, parece que fue llevado al hospital, y finalmente, lo desaparecen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severino Díaz Quispe, de 17 años, quien estudiaba en el colegio Los Libertadores. Participaba en un desfile por fiestas patrias en la Plaza Sucre el 28 de julio de 1984. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severino Díaz Quispe, 17, who was a student at Los Libertadores school. He participated in a national holiday parade in Plaza Sucre on July 28, 1984. </t>
   </si>
 </sst>
 </file>
@@ -539,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -575,6 +576,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -796,8 +798,8 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -857,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>12</v>
@@ -869,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I2" s="21">
         <v>-74.223211369082804</v>
@@ -881,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4">
@@ -892,10 +894,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
@@ -904,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I3" s="21">
         <v>-74.225884214648005</v>
@@ -916,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4">
@@ -927,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>15</v>
@@ -951,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4">
@@ -962,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -974,7 +976,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I5" s="21">
         <v>-74.203762100000006</v>
@@ -986,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4">
@@ -997,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1009,7 +1011,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I6">
         <v>-74.198698092614507</v>
@@ -1021,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4">
@@ -1032,7 +1034,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>23</v>
@@ -1044,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I7" s="11">
         <v>-74.224607764417996</v>
@@ -1056,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4">
@@ -1067,7 +1069,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -1096,7 +1098,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -1125,7 +1127,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -1137,7 +1139,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I10">
         <v>-74.203762103270606</v>
@@ -1154,7 +1156,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -1163,10 +1165,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I11">
         <v>-74.198698092614507</v>
@@ -1183,7 +1185,7 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>35</v>
@@ -1195,7 +1197,7 @@
         <v>36</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="I12">
         <v>-74.230797701785306</v>
@@ -1207,70 +1209,70 @@
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="23">
+        <v>-74.225859179762594</v>
+      </c>
+      <c r="J13" s="23">
+        <v>-13.160017770287499</v>
+      </c>
+      <c r="K13" s="18">
+        <v>9</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="18" customFormat="1" ht="14.4">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="F14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="11">
+      <c r="H14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="23">
         <v>-74.225859179762594</v>
       </c>
-      <c r="J13" s="11">
-        <v>-13.160017770287499</v>
-      </c>
-      <c r="K13">
-        <v>9</v>
-      </c>
-      <c r="L13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.4">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-74.225859179762594</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="J14" s="23">
         <v>-13.160017770287499</v>
       </c>
     </row>
@@ -1282,19 +1284,19 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="I15" s="11">
         <v>-74.225859179762594</v>
@@ -1311,19 +1313,19 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="I16">
         <v>-74.198698092614507</v>
@@ -1337,22 +1339,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="I17" s="11">
         <v>-74.223628477160901</v>
@@ -1364,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -1372,22 +1374,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I18" s="11">
         <v>-74.234734575307897</v>
@@ -1401,22 +1403,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I19">
         <v>-74.203762103270606</v>
@@ -1430,22 +1432,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I20">
         <v>-74.198698092614507</v>
@@ -1459,22 +1461,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I21">
         <v>-74.198698092614507</v>
@@ -1488,22 +1490,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I22" s="5">
         <v>-74.238423900460802</v>
@@ -1517,22 +1519,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>66</v>
-      </c>
       <c r="F23" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I23" s="17">
         <v>-74.229020075587897</v>
@@ -1547,22 +1549,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>106</v>
       </c>
       <c r="I24" s="17">
         <v>-74.223628477160901</v>
@@ -1577,22 +1579,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I25" s="9">
         <v>-74.238423900460802</v>
@@ -1606,22 +1608,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>-74.198698092614507</v>
@@ -1699,22 +1701,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="H2" s="4">
         <v>-726782</v>
